--- a/data/raw/sample_data.xlsx
+++ b/data/raw/sample_data.xlsx
@@ -2381,7 +2381,7 @@
   <dimension ref="A1:F247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5" outlineLevelCol="5"/>
